--- a/public/file_nilai/nilai_kelas6_form.xlsx
+++ b/public/file_nilai/nilai_kelas6_form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Februari 2023\Dion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\pbpm\public\file_nilai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ACE1A0-7F19-435B-B4F8-071000F8F5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464FCB1A-327A-4689-B174-67762FF0F469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="14927" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
